--- a/biology/Zoologie/Aegithinidae/Aegithinidae.xlsx
+++ b/biology/Zoologie/Aegithinidae/Aegithinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aegithinidae (ou ægithinidés) sont une famille de passereaux constituée du seul genre Aegithina et 4 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études d'hybridation de l'ADN ont montré qu'ils étaient apparentés aux corvidés, et placé dans cette famille dans la classification de Sibley. Ils ont longtemps été classés dans la famille des irénidés avec les verdins et les oiseaux bleus des fées. D'après le Congrès ornithologique international, ils forment maintenant une famille à part entière.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur aire de répartition se limite à la seule région indomalaise.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Aegithina tiphia – Petit Iora
